--- a/Configs/GameConfig/Datas/princess_card.xlsx
+++ b/Configs/GameConfig/Datas/princess_card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PVZ\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D8006-5D8E-4CA3-9928-FDF6C70655DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C8F7E-A192-4710-A4C4-3593D114A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>200</v>

--- a/Configs/GameConfig/Datas/princess_card.xlsx
+++ b/Configs/GameConfig/Datas/princess_card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PVZ\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity_Shaw\TEngine4.0.12\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C8F7E-A192-4710-A4C4-3593D114A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2524F-EB55-45A2-9560-E3727BFE636B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,27 +504,27 @@
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="9.2109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.35546875" customWidth="1"/>
     <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.35546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -633,7 +633,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
